--- a/análisis/Casos de Uso Narrativos/CDUN - (Administrar Alojamiento) Modificar reserva.xlsx
+++ b/análisis/Casos de Uso Narrativos/CDUN - (Administrar Alojamiento) Modificar reserva.xlsx
@@ -517,14 +517,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Caso de uso</t>
   </si>
   <si>
-    <t>&lt;&lt; id &gt;&gt;</t>
-  </si>
-  <si>
     <t>Actores</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
     <t>Admin, Hostel worker</t>
   </si>
   <si>
-    <t>Principal, esencial</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
@@ -612,34 +606,46 @@
     <t>El Admin o Hostel worker modifican una reserva ya resgistrada en el sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin, Hostel worker: seleccionan la reserva que dese modificar </t>
-  </si>
-  <si>
     <t>El sistema muestra por pantalla la reserva seleccionada</t>
   </si>
   <si>
-    <t>Admin, Hostel worker: modifican los campos que desea</t>
-  </si>
-  <si>
     <t xml:space="preserve">El sistema realiza los cambios </t>
   </si>
   <si>
-    <t>Admin, Hotel worker: guarda los cambios realizados</t>
-  </si>
-  <si>
     <t>4a</t>
   </si>
   <si>
     <t>Problemas en la base de datos impide que se guarden los cambios</t>
   </si>
   <si>
-    <t>Moderada</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
     <t>Sin imlementar</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Principal | Esencial</t>
+  </si>
+  <si>
+    <t>4.2.1, 4.7, 4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actor Admin, Hostel worker: seleccionan la reserva que dese modificar </t>
+  </si>
+  <si>
+    <t>Actor Admin, Hostel worker: modifican los campos que desea</t>
+  </si>
+  <si>
+    <t>ActorAdmin, Hotel worker: guarda los cambios realizados</t>
+  </si>
+  <si>
+    <t>Fin del caso de uso</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1061,6 +1067,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1086,18 +1096,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,7 +1383,7 @@
   <dimension ref="B1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1398,371 +1400,385 @@
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11">
+        <v>42116</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="39">
-        <v>42116</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="B10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
+      <c r="B11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="B13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="B14" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+      <c r="B16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="36"/>
+      <c r="C17" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="37"/>
+      <c r="G17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>3</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="33"/>
+      <c r="C18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="7">
         <v>4</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+      <c r="G18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
+      <c r="B22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="18" t="s">
+      <c r="G27" s="22"/>
+      <c r="H27" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="18" t="s">
+      <c r="G28" s="22"/>
+      <c r="H28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="31" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="33"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
+      <c r="B31" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="41">
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
@@ -1775,10 +1791,14 @@
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:I5"/>
@@ -1787,16 +1807,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="720" verticalDpi="720" r:id="rId1"/>
